--- a/文档/其他文档/Others/Jobs/疫苗统计-综合室.xlsx
+++ b/文档/其他文档/Others/Jobs/疫苗统计-综合室.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,22 +74,6 @@
   </si>
   <si>
     <t>北京生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京科兴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,11 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -492,35 +474,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>13918581983</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44352</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44374</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
